--- a/test/test_singlezone/steady_05/正解値05.xlsx
+++ b/test/test_singlezone/steady_05/正解値05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\heat_load_calc\test\test_singlezone\steady_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4A8453-1273-4C8A-99DB-D04B73EC214E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F790D49C-627B-415C-84B9-BE1B4A2EDEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="5670" yWindow="2895" windowWidth="21345" windowHeight="12570" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,26 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="181029" iterate="1" iterateDelta="1E-10"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -1141,6 +1150,51 @@
       <t>ケイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>人体に対する形態係数</t>
+    <rPh sb="0" eb="2">
+      <t>ジンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人体に対する平均放射温度</t>
+    <rPh sb="0" eb="2">
+      <t>ジンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>等価室温</t>
+    <rPh sb="0" eb="2">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シツオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1198,7 +1252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1258,6 +1312,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1267,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1307,18 +1374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1341,6 +1396,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1832,230 +1908,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9360597-FA01-4EB8-8119-47292E47FAAB}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.8984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="18"/>
-    <col min="6" max="6" width="12.8984375" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="18"/>
+    <col min="1" max="1" width="19" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="14"/>
+    <col min="6" max="6" width="12.875" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="16">
         <v>1.199999999980782</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="str">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="str">
         <f>[1]正解値!$H20</f>
         <v>壁</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="17">
         <f>正解値!$J22</f>
         <v>1</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <f t="shared" ref="C3:C8" si="0">B3/$B$9</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="19">
         <f t="shared" ref="D3:D8" si="1">0.5*(1-SIGN(1-4*C3/$H$2)*SQRT(ABS(1-4*C3/$H$2)))</f>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="13">
         <f>[1]正解値!$K20</f>
         <v>0.9</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F8" si="2">E3/(1-E3*D3)*4*0.0000000567*($H$3+273.15)^3</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="str">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="str">
         <f>[1]正解値!$H21</f>
         <v>壁</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="17">
         <f>正解値!$J23</f>
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="19">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <f>[1]正解値!$K21</f>
         <v>0.9</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="19">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="17" t="str">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="str">
         <f>[1]正解値!$H22</f>
         <v>壁</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="17">
         <f>正解値!$J24</f>
         <v>1</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <f>[1]正解値!$K22</f>
         <v>0.9</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="19">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="17" t="str">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="str">
         <f>[1]正解値!$H23</f>
         <v>壁</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="17">
         <f>正解値!$J25</f>
         <v>1</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="19">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="13">
         <f>[1]正解値!$K23</f>
         <v>0.9</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="19">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="17" t="str">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="str">
         <f>[1]正解値!$H24</f>
         <v>床</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="17">
         <f>正解値!$J26</f>
         <v>1</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="19">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="13">
         <f>[1]正解値!$K24</f>
         <v>0.9</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="19">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="17" t="str">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="str">
         <f>[1]正解値!$H25</f>
         <v>屋根</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="17">
         <f>正解値!$J27</f>
         <v>1</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="19">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <f>[1]正解値!$K25</f>
         <v>0.9</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="19">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="17">
         <f>SUM(B3:B8)</f>
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="24">
+      <c r="C9" s="13"/>
+      <c r="D9" s="20">
         <f>SUM(D3:D8)</f>
         <v>1.0000000000200189</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2067,115 +2145,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2228,12 +2311,21 @@
       <c r="V20" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A21" s="13" t="s">
+      <c r="W20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="X20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y20" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2289,10 +2381,17 @@
       <c r="V21" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
@@ -2325,7 +2424,7 @@
         <v>3.0411743961133499</v>
       </c>
       <c r="N22" s="1">
-        <f ca="1">1/SUM($M22,$L22)</f>
+        <f t="shared" ref="N22:N27" ca="1" si="1">1/SUM($M22,$L22)</f>
         <v>0.11000000000000014</v>
       </c>
       <c r="O22" s="1">
@@ -2336,33 +2435,45 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="Q22" s="1">
-        <f ca="1">1/(1/$M22+$P22+$O22)</f>
+        <f t="shared" ref="Q22:Q27" ca="1" si="2">1/(1/$M22+$P22+$O22)</f>
         <v>2.3048160543761158</v>
       </c>
       <c r="R22" s="10">
-        <f ca="1">$I22+($S22-$I22)*SUM($O22,$P22)/SUM($O22,$P22,$N22)</f>
-        <v>1.6161570331446706</v>
+        <f t="shared" ref="R22:R27" ca="1" si="3">$I22+($S22-$I22)*SUM($O22,$P22)/SUM($O22,$P22,$N22)</f>
+        <v>1.6161570331447002</v>
       </c>
       <c r="S22" s="1">
-        <f ca="1">($D$31*$M22+$D$32*$L22)/SUM($M22,$L22)</f>
-        <v>3.3084074373484773</v>
+        <f t="shared" ref="S22:S27" ca="1" si="4">($D$31*$M22+$D$32*$L22)/SUM($M22,$L22)</f>
+        <v>3.3084074373484276</v>
       </c>
       <c r="T22" s="1">
-        <f ca="1">($D$31-$R22)*$M22</f>
-        <v>5.1464286010771776</v>
+        <f t="shared" ref="T22:T27" ca="1" si="5">($D$31-$R22)*$M22</f>
+        <v>5.1464286010768499</v>
       </c>
       <c r="U22" s="1">
-        <f ca="1">($D$32-$R22)*$L22</f>
-        <v>10.237665982593775</v>
+        <f t="shared" ref="U22:U27" ca="1" si="6">($D$32-$R22)*$L22</f>
+        <v>10.237665982593379</v>
       </c>
       <c r="V22" s="8">
-        <f t="shared" ref="V22:V27" ca="1" si="1">SUM($T22,$U22)</f>
-        <v>15.384094583670953</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+        <f t="shared" ref="V22:V27" ca="1" si="7">SUM($T22,$U22)</f>
+        <v>15.38409458367023</v>
+      </c>
+      <c r="W22" s="1">
+        <f>(1-$W$26)*J22/SUM($J$22:$J$25,$J$27)</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="X22" s="27">
+        <f ca="1">SUMPRODUCT(R22:R27,W22:W27)</f>
+        <v>2.7584766010958428</v>
+      </c>
+      <c r="Y22" s="1">
+        <f ca="1">(M22*$D$31+L22*$D$32)*N22</f>
+        <v>3.3084074373484276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
@@ -2392,11 +2503,11 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" ref="M23:M27" ca="1" si="2">1/$N23-$L23</f>
+        <f t="shared" ref="M23:M27" ca="1" si="8">1/$N23-$L23</f>
         <v>3.0411743961133499</v>
       </c>
       <c r="N23" s="1">
-        <f ca="1">1/SUM($M23,$L23)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="O23" s="1">
@@ -2407,32 +2518,40 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="Q23" s="1">
-        <f ca="1">1/(1/$M23+$P23+$O23)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.3048160543761158</v>
       </c>
       <c r="R23" s="10">
-        <f ca="1">$I23+($S23-$I23)*SUM($O23,$P23)/SUM($O23,$P23,$N23)</f>
-        <v>1.6161570331446706</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6161570331447002</v>
       </c>
       <c r="S23" s="1">
-        <f ca="1">($D$31*$M23+$D$32*$L23)/SUM($M23,$L23)</f>
-        <v>3.3084074373484773</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3084074373484276</v>
       </c>
       <c r="T23" s="1">
-        <f ca="1">($D$31-$R23)*$M23</f>
-        <v>5.1464286010771776</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.1464286010768499</v>
       </c>
       <c r="U23" s="1">
-        <f ca="1">($D$32-$R23)*$L23</f>
-        <v>10.237665982593775</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>10.237665982593379</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.384094583670953</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A24" s="13" t="s">
+        <f t="shared" ca="1" si="7"/>
+        <v>15.38409458367023</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" ref="W23:W27" si="9">(1-$W$26)*J23/SUM($J$22:$J$25,$J$27)</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" ref="Y23:Y27" ca="1" si="10">(M23*$D$31+L23*$D$32)*N23</f>
+        <v>3.3084074373484276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A24" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2465,11 +2584,11 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3.0411743961133499</v>
       </c>
       <c r="N24" s="1">
-        <f ca="1">1/SUM($M24,$L24)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="O24" s="1">
@@ -2480,33 +2599,41 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="Q24" s="1">
-        <f ca="1">1/(1/$M24+$P24+$O24)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.3048160543761158</v>
       </c>
       <c r="R24" s="10">
-        <f ca="1">$I24+($S24-$I24)*SUM($O24,$P24)/SUM($O24,$P24,$N24)</f>
-        <v>6.7311570331446768</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.7311570331447061</v>
       </c>
       <c r="S24" s="1">
-        <f ca="1">($D$31*$M24+$D$32*$L24)/SUM($M24,$L24)</f>
-        <v>3.3084074373484773</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3084074373484276</v>
       </c>
       <c r="T24" s="1">
-        <f ca="1">($D$31-$R24)*$M24</f>
-        <v>-10.409178435042627</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-10.409178435042953</v>
       </c>
       <c r="U24" s="1">
-        <f ca="1">($D$32-$R24)*$L24</f>
-        <v>-20.706726981286419</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-20.706726981286813</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-31.115905416329046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A25" s="15"/>
-      <c r="B25" s="13" t="s">
+        <f t="shared" ca="1" si="7"/>
+        <v>-31.115905416329767</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.3084074373484276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A25" s="24"/>
+      <c r="B25" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2539,11 +2666,11 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3.0411743961133499</v>
       </c>
       <c r="N25" s="1">
-        <f ca="1">1/SUM($M25,$L25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="O25" s="1">
@@ -2554,33 +2681,41 @@
         <v>6.5053763440860057E-2</v>
       </c>
       <c r="Q25" s="1">
-        <f ca="1">1/(1/$M25+$P25+$O25)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.3048160543761158</v>
       </c>
       <c r="R25" s="10">
-        <f ca="1">$I25+($S25-$I25)*SUM($O25,$P25)/SUM($O25,$P25,$N25)</f>
-        <v>1.6161570331446706</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6161570331447002</v>
       </c>
       <c r="S25" s="1">
-        <f ca="1">($D$31*$M25+$D$32*$L25)/SUM($M25,$L25)</f>
-        <v>3.3084074373484773</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3084074373484276</v>
       </c>
       <c r="T25" s="1">
-        <f ca="1">($D$31-$R25)*$M25</f>
-        <v>5.1464286010771776</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.1464286010768499</v>
       </c>
       <c r="U25" s="1">
-        <f ca="1">($D$32-$R25)*$L25</f>
-        <v>10.237665982593775</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>10.237665982593379</v>
       </c>
       <c r="V25" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.384094583670953</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>15.38409458367023</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.3084074373484276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2610,11 +2745,11 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3.0411743961133499</v>
       </c>
       <c r="N26" s="1">
-        <f ca="1">1/SUM($M26,$L26)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="O26" s="1">
@@ -2625,33 +2760,40 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q26" s="1">
-        <f ca="1">1/(1/$M26+$P26+$O26)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.2531639699224311</v>
       </c>
       <c r="R26" s="10">
-        <f ca="1">$I26+($S26-$I26)*SUM($O26,$P26)/SUM($O26,$P26,$N26)</f>
-        <v>1.6909638013113815</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6909638013114126</v>
       </c>
       <c r="S26" s="1">
-        <f ca="1">($D$31*$M26+$D$32*$L26)/SUM($M26,$L26)</f>
-        <v>3.3084074373484773</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3084074373484276</v>
       </c>
       <c r="T26" s="1">
-        <f ca="1">($D$31-$R26)*$M26</f>
-        <v>4.9189281730725893</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.9189281730722572</v>
       </c>
       <c r="U26" s="1">
-        <f ca="1">($D$32-$R26)*$L26</f>
-        <v>9.7851048818100832</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9.7851048818096782</v>
       </c>
       <c r="V26" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.704033054882672</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>14.704033054881936</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.3084074373484276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2679,11 +2821,11 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="8"/>
         <v>3.0411743961133499</v>
       </c>
       <c r="N27" s="1">
-        <f ca="1">1/SUM($M27,$L27)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0.11000000000000014</v>
       </c>
       <c r="O27" s="1">
@@ -2694,35 +2836,43 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q27" s="1">
-        <f ca="1">1/(1/$M27+$P27+$O27)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>2.2531639699224311</v>
       </c>
       <c r="R27" s="10">
-        <f ca="1">$I27+($S27-$I27)*SUM($O27,$P27)/SUM($O27,$P27,$N27)</f>
-        <v>6.5798526902002745</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.5798526902003047</v>
       </c>
       <c r="S27" s="1">
-        <f ca="1">($D$31*$M27+$D$32*$L27)/SUM($M27,$L27)</f>
-        <v>3.3084074373484773</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.3084074373484276</v>
       </c>
       <c r="T27" s="1">
-        <f ca="1">($D$31-$R27)*$M27</f>
-        <v>-9.9490355412593559</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-9.9490355412596863</v>
       </c>
       <c r="U27" s="1">
-        <f ca="1">($D$32-$R27)*$L27</f>
-        <v>-19.791375848302398</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-19.791375848302796</v>
       </c>
       <c r="V27" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>-29.740411389561753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A28" s="13" t="s">
+        <f t="shared" ca="1" si="7"/>
+        <v>-29.740411389562482</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.3084074373484276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A28" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="25" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2730,16 +2880,16 @@
       </c>
       <c r="D28" s="1">
         <f ca="1">SUM($T$22:$T$27)</f>
-        <v>2.1387336346379016E-12</v>
+        <v>1.6697754290362354E-13</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2752,24 +2902,24 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A30" s="24"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="1">
         <f ca="1">SUM($D$28:$D$29)</f>
-        <v>2.1387336346379016E-12</v>
+        <v>1.6697754290362354E-13</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A31" s="15"/>
-      <c r="B31" s="13" t="s">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A31" s="24"/>
+      <c r="B31" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2777,22 +2927,22 @@
       </c>
       <c r="D31" s="9">
         <f ca="1">$D$31+($D$27-$D$30)/$D$26</f>
-        <v>3.3084074373483521</v>
+        <v>3.3084074373484178</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="9">
         <f ca="1">SUMPRODUCT($L$22:$L$27,$J$22:$J$27,$R$22:$R$27)/SUMPRODUCT($L$22:$L$27,$J$22:$J$27)</f>
-        <v>3.3084074373483903</v>
+        <v>3.3084074373484205</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>

--- a/test/test_singlezone/steady_05/正解値05.xlsx
+++ b/test/test_singlezone/steady_05/正解値05.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\heat_load_calc\test\test_singlezone\steady_05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/test_singlezone/steady_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F790D49C-627B-415C-84B9-BE1B4A2EDEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F790D49C-627B-415C-84B9-BE1B4A2EDEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{922EC077-60B7-4826-9FD2-69F6E718E9F9}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="2895" windowWidth="21345" windowHeight="12570" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
     <sheet name="正解値" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029" iterate="1" iterateDelta="1E-10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -316,13 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作用温度</t>
-    <rPh sb="0" eb="4">
-      <t>サヨウオンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>相当外気温度</t>
     <rPh sb="0" eb="2">
       <t>ソウトウ</t>
@@ -1195,6 +1185,15 @@
       <t>シツオン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>屋根</t>
   </si>
 </sst>
 </file>
@@ -1334,27 +1333,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,14 +1349,8 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1398,6 +1376,12 @@
     <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1412,12 +1396,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1545,74 +1523,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="熱伝達率"/>
-      <sheetName val="正解値"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="20">
-          <cell r="H20" t="str">
-            <v>壁</v>
-          </cell>
-          <cell r="K20">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21" t="str">
-            <v>壁</v>
-          </cell>
-          <cell r="K21">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22" t="str">
-            <v>壁</v>
-          </cell>
-          <cell r="K22">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23" t="str">
-            <v>壁</v>
-          </cell>
-          <cell r="K23">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24" t="str">
-            <v>床</v>
-          </cell>
-          <cell r="K24">
-            <v>0.9</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25" t="str">
-            <v>屋根</v>
-          </cell>
-          <cell r="K25">
-            <v>0.9</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1650,7 +1564,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1756,7 +1670,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1898,7 +1812,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1908,232 +1822,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9360597-FA01-4EB8-8119-47292E47FAAB}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="14"/>
-    <col min="6" max="6" width="12.875" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="14"/>
+    <col min="1" max="1" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="7"/>
+    <col min="6" max="6" width="12.875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="16">
+      <c r="H2" s="9">
         <v>1.199999999980782</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="str">
-        <f>[1]正解値!$H20</f>
-        <v>壁</v>
-      </c>
-      <c r="B3" s="17">
+      <c r="A3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="10">
         <f>正解値!$J22</f>
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="11">
         <f t="shared" ref="C3:C8" si="0">B3/$B$9</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D8" si="1">0.5*(1-SIGN(1-4*C3/$H$2)*SQRT(ABS(1-4*C3/$H$2)))</f>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E3" s="13">
-        <f>[1]正解値!$K20</f>
+      <c r="E3" s="6">
+        <f>正解値!K22</f>
         <v>0.9</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F8" si="2">E3/(1-E3*D3)*4*0.0000000567*($H$3+273.15)^3</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="13">
+      <c r="G3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="str">
-        <f>[1]正解値!$H21</f>
-        <v>壁</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="A4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="10">
         <f>正解値!$J23</f>
         <v>1</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E4" s="13">
-        <f>[1]正解値!$K21</f>
+      <c r="E4" s="6">
+        <f>正解値!K23</f>
         <v>0.9</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="str">
-        <f>[1]正解値!$H22</f>
-        <v>壁</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="A5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="10">
         <f>正解値!$J24</f>
         <v>1</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E5" s="13">
-        <f>[1]正解値!$K22</f>
+      <c r="E5" s="6">
+        <f>正解値!K24</f>
         <v>0.9</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="str">
-        <f>[1]正解値!$H23</f>
-        <v>壁</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="A6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="10">
         <f>正解値!$J25</f>
         <v>1</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E6" s="13">
-        <f>[1]正解値!$K23</f>
+      <c r="E6" s="6">
+        <f>正解値!K25</f>
         <v>0.9</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="str">
-        <f>[1]正解値!$H24</f>
-        <v>床</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="10">
         <f>正解値!$J26</f>
         <v>1</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E7" s="13">
-        <f>[1]正解値!$K24</f>
+      <c r="E7" s="6">
+        <f>正解値!K26</f>
         <v>0.9</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="str">
-        <f>[1]正解値!$H25</f>
-        <v>屋根</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="A8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="10">
         <f>正解値!$J27</f>
         <v>1</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="12">
         <f t="shared" si="1"/>
         <v>0.16666666667000313</v>
       </c>
-      <c r="E8" s="13">
-        <f>[1]正解値!$K25</f>
+      <c r="E8" s="6">
+        <f>正解値!K27</f>
         <v>0.9</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="12">
         <f t="shared" si="2"/>
         <v>6.0497346947957293</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="A9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="10">
         <f>SUM(B3:B8)</f>
         <v>6</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="20">
+      <c r="C9" s="6"/>
+      <c r="D9" s="13">
         <f>SUM(D3:D8)</f>
         <v>1.0000000000200189</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2147,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2175,90 +2083,90 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2269,141 +2177,141 @@
         <v>15</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="11" t="s">
+      <c r="W20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A21" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V20" s="3" t="s">
+      <c r="L21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="X20" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y20" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A21" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="U21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1005</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W21" s="1"/>
-      <c r="X21" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y21" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="H22" s="3" t="s">
-        <v>68</v>
+      <c r="F22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" ref="I22:I26" si="0">$D$24</f>
@@ -2438,55 +2346,55 @@
         <f t="shared" ref="Q22:Q27" ca="1" si="2">1/(1/$M22+$P22+$O22)</f>
         <v>2.3048160543761158</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="5">
         <f t="shared" ref="R22:R27" ca="1" si="3">$I22+($S22-$I22)*SUM($O22,$P22)/SUM($O22,$P22,$N22)</f>
-        <v>1.6161570331447002</v>
+        <v>1.616157033144703</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" ref="S22:S27" ca="1" si="4">($D$31*$M22+$D$32*$L22)/SUM($M22,$L22)</f>
-        <v>3.3084074373484276</v>
+        <v>3.3084074373484218</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" ref="T22:T27" ca="1" si="5">($D$31-$R22)*$M22</f>
-        <v>5.1464286010768499</v>
+        <v>5.146428601076817</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" ref="U22:U27" ca="1" si="6">($D$32-$R22)*$L22</f>
-        <v>10.237665982593379</v>
-      </c>
-      <c r="V22" s="8">
+        <v>10.237665982593334</v>
+      </c>
+      <c r="V22" s="3">
         <f t="shared" ref="V22:V27" ca="1" si="7">SUM($T22,$U22)</f>
-        <v>15.38409458367023</v>
+        <v>15.384094583670151</v>
       </c>
       <c r="W22" s="1">
         <f>(1-$W$26)*J22/SUM($J$22:$J$25,$J$27)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="X22" s="27">
+      <c r="X22" s="15">
         <f ca="1">SUMPRODUCT(R22:R27,W22:W27)</f>
-        <v>2.7584766010958428</v>
+        <v>2.7584766010958401</v>
       </c>
       <c r="Y22" s="1">
         <f ca="1">(M22*$D$31+L22*$D$32)*N22</f>
-        <v>3.3084074373484276</v>
+        <v>3.3084074373484218</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="6">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2">
         <f>$D$21*$D$22</f>
         <v>1206</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="H23" s="4" t="s">
-        <v>69</v>
+      <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="0"/>
@@ -2521,25 +2429,25 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.3048160543761158</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6161570331447002</v>
+        <v>1.616157033144703</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3084074373484276</v>
+        <v>3.3084074373484218</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1464286010768499</v>
+        <v>5.146428601076817</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10.237665982593379</v>
-      </c>
-      <c r="V23" s="8">
+        <v>10.237665982593334</v>
+      </c>
+      <c r="V23" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>15.38409458367023</v>
+        <v>15.384094583670151</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" ref="W23:W27" si="9">(1-$W$26)*J23/SUM($J$22:$J$25,$J$27)</f>
@@ -2547,11 +2455,11 @@
       </c>
       <c r="Y23" s="1">
         <f t="shared" ref="Y23:Y27" ca="1" si="10">(M23*$D$31+L23*$D$32)*N23</f>
-        <v>3.3084074373484276</v>
+        <v>3.3084074373484218</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2567,8 +2475,8 @@
         <v>9</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="H24" s="7" t="s">
-        <v>67</v>
+      <c r="H24" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="I24" s="1">
         <v>10</v>
@@ -2602,25 +2510,25 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.3048160543761158</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7311570331447061</v>
+        <v>6.7311570331447097</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3084074373484276</v>
+        <v>3.3084074373484218</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-10.409178435042953</v>
+        <v>-10.409178435042989</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-20.706726981286813</v>
-      </c>
-      <c r="V24" s="8">
+        <v>-20.706726981286863</v>
+      </c>
+      <c r="V24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>-31.115905416329767</v>
+        <v>-31.115905416329852</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" si="9"/>
@@ -2628,28 +2536,28 @@
       </c>
       <c r="Y24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.3084074373484276</v>
+        <v>3.3084074373484218</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>46</v>
+      <c r="E25" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="0"/>
@@ -2684,25 +2592,25 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.3048160543761158</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6161570331447002</v>
+        <v>1.616157033144703</v>
       </c>
       <c r="S25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3084074373484276</v>
+        <v>3.3084074373484218</v>
       </c>
       <c r="T25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1464286010768499</v>
+        <v>5.146428601076817</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10.237665982593379</v>
-      </c>
-      <c r="V25" s="8">
+        <v>10.237665982593334</v>
+      </c>
+      <c r="V25" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>15.38409458367023</v>
+        <v>15.384094583670151</v>
       </c>
       <c r="W25" s="1">
         <f t="shared" si="9"/>
@@ -2710,12 +2618,12 @@
       </c>
       <c r="Y25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.3084074373484276</v>
+        <v>3.3084074373484218</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2727,8 +2635,8 @@
         <v>7</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="H26" s="3" t="s">
-        <v>35</v>
+      <c r="H26" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="0"/>
@@ -2763,37 +2671,37 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.2531639699224311</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6909638013114126</v>
+        <v>1.6909638013114159</v>
       </c>
       <c r="S26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3084074373484276</v>
+        <v>3.3084074373484218</v>
       </c>
       <c r="T26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9189281730722572</v>
+        <v>4.9189281730722225</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7851048818096782</v>
-      </c>
-      <c r="V26" s="8">
+        <v>9.7851048818096302</v>
+      </c>
+      <c r="V26" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>14.704033054881936</v>
+        <v>14.704033054881853</v>
       </c>
       <c r="W26" s="1">
         <v>0.45</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.3084074373484276</v>
+        <v>3.3084074373484218</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2804,8 +2712,8 @@
         <v>2</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="H27" s="7" t="s">
-        <v>34</v>
+      <c r="H27" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="I27" s="1">
         <v>10</v>
@@ -2839,25 +2747,25 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.2531639699224311</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5798526902003047</v>
+        <v>6.5798526902003083</v>
       </c>
       <c r="S27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3084074373484276</v>
+        <v>3.3084074373484218</v>
       </c>
       <c r="T27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-9.9490355412596863</v>
+        <v>-9.9490355412597218</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-19.791375848302796</v>
-      </c>
-      <c r="V27" s="8">
+        <v>-19.791375848302845</v>
+      </c>
+      <c r="V27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>-29.740411389562482</v>
+        <v>-29.740411389562567</v>
       </c>
       <c r="W27" s="1">
         <f t="shared" si="9"/>
@@ -2865,69 +2773,69 @@
       </c>
       <c r="Y27" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3.3084074373484276</v>
+        <v>3.3084074373484218</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>57</v>
+      <c r="B28" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="1">
         <f ca="1">SUM($T$22:$T$27)</f>
-        <v>1.6697754290362354E-13</v>
-      </c>
-      <c r="E28" s="6" t="s">
+        <v>-3.730349362740526E-14</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="1">
         <f ca="1">$D$23*$D$25*($D$31-$D$24)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A30" s="24"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1">
         <f ca="1">SUM($D$28:$D$29)</f>
-        <v>1.6697754290362354E-13</v>
-      </c>
-      <c r="E30" s="3" t="s">
+        <v>-3.730349362740526E-14</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A31" s="24"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="4">
         <f ca="1">$D$31+($D$27-$D$30)/$D$26</f>
-        <v>3.3084074373484178</v>
+        <v>3.3084074373484245</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>9</v>
@@ -2935,14 +2843,14 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="9">
+        <v>42</v>
+      </c>
+      <c r="D32" s="4">
         <f ca="1">SUMPRODUCT($L$22:$L$27,$J$22:$J$27,$R$22:$R$27)/SUMPRODUCT($L$22:$L$27,$J$22:$J$27)</f>
-        <v>3.3084074373484205</v>
+        <v>3.308407437348424</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>

--- a/test/test_singlezone/steady_05/正解値05.xlsx
+++ b/test/test_singlezone/steady_05/正解値05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/test_singlezone/steady_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F790D49C-627B-415C-84B9-BE1B4A2EDEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{922EC077-60B7-4826-9FD2-69F6E718E9F9}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{F790D49C-627B-415C-84B9-BE1B4A2EDEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49C2A2E3-CBB3-4B48-B792-853AA1991B9B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="5190" yWindow="2160" windowWidth="22665" windowHeight="13200" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
   <si>
     <t>対流熱伝達率</t>
     <rPh sb="0" eb="2">
@@ -1194,18 +1194,235 @@
   </si>
   <si>
     <t>屋根</t>
+  </si>
+  <si>
+    <t>法線面直達日射量</t>
+    <rPh sb="0" eb="3">
+      <t>ホウセンメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チョクタツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W/m2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平面天空日射量</t>
+    <rPh sb="0" eb="3">
+      <t>スイヘイメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンクウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太陽高度</t>
+    <rPh sb="0" eb="2">
+      <t>タイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太陽方位角</t>
+    <rPh sb="0" eb="2">
+      <t>タイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平面全天日射量</t>
+    <rPh sb="0" eb="3">
+      <t>スイヘイメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面反射率</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方位角</t>
+    <rPh sb="0" eb="2">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入射角方向余弦</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシャカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天空に対する形態係数</t>
+    <rPh sb="0" eb="2">
+      <t>テンクウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面に対する形態係数</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傾斜面日射量</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜間放射量</t>
+    <rPh sb="0" eb="2">
+      <t>ヤカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外表面放射率</t>
+    <rPh sb="0" eb="3">
+      <t>ガイヒョウメン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホウシャリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外表面日射吸収率</t>
+    <rPh sb="0" eb="3">
+      <t>ガイヒョウメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニッシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傾斜角</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000000000000"/>
     <numFmt numFmtId="177" formatCode="0.0000000000000"/>
     <numFmt numFmtId="178" formatCode="0.00000000000000"/>
     <numFmt numFmtId="179" formatCode="0.000"/>
     <numFmt numFmtId="180" formatCode="0.00000000"/>
+    <numFmt numFmtId="181" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1333,7 +1550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1380,6 +1597,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1822,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9360597-FA01-4EB8-8119-47292E47FAAB}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1876,7 +2099,7 @@
         <v>85</v>
       </c>
       <c r="B3" s="10">
-        <f>正解値!$J22</f>
+        <f>正解値!$Q22</f>
         <v>1</v>
       </c>
       <c r="C3" s="11">
@@ -1888,7 +2111,7 @@
         <v>0.16666666667000313</v>
       </c>
       <c r="E3" s="6">
-        <f>正解値!K22</f>
+        <f>正解値!R22</f>
         <v>0.9</v>
       </c>
       <c r="F3" s="12">
@@ -1907,7 +2130,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="10">
-        <f>正解値!$J23</f>
+        <f>正解値!$Q23</f>
         <v>1</v>
       </c>
       <c r="C4" s="11">
@@ -1919,7 +2142,7 @@
         <v>0.16666666667000313</v>
       </c>
       <c r="E4" s="6">
-        <f>正解値!K23</f>
+        <f>正解値!R23</f>
         <v>0.9</v>
       </c>
       <c r="F4" s="12">
@@ -1932,7 +2155,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="10">
-        <f>正解値!$J24</f>
+        <f>正解値!$Q24</f>
         <v>1</v>
       </c>
       <c r="C5" s="11">
@@ -1944,7 +2167,7 @@
         <v>0.16666666667000313</v>
       </c>
       <c r="E5" s="6">
-        <f>正解値!K24</f>
+        <f>正解値!R24</f>
         <v>0.9</v>
       </c>
       <c r="F5" s="12">
@@ -1957,7 +2180,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="10">
-        <f>正解値!$J25</f>
+        <f>正解値!$Q25</f>
         <v>1</v>
       </c>
       <c r="C6" s="11">
@@ -1969,7 +2192,7 @@
         <v>0.16666666667000313</v>
       </c>
       <c r="E6" s="6">
-        <f>正解値!K25</f>
+        <f>正解値!R25</f>
         <v>0.9</v>
       </c>
       <c r="F6" s="12">
@@ -1982,7 +2205,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="10">
-        <f>正解値!$J26</f>
+        <f>正解値!$Q26</f>
         <v>1</v>
       </c>
       <c r="C7" s="11">
@@ -1994,7 +2217,7 @@
         <v>0.16666666667000313</v>
       </c>
       <c r="E7" s="6">
-        <f>正解値!K26</f>
+        <f>正解値!R26</f>
         <v>0.9</v>
       </c>
       <c r="F7" s="12">
@@ -2007,7 +2230,7 @@
         <v>87</v>
       </c>
       <c r="B8" s="10">
-        <f>正解値!$J27</f>
+        <f>正解値!$Q27</f>
         <v>1</v>
       </c>
       <c r="C8" s="11">
@@ -2019,7 +2242,7 @@
         <v>0.16666666667000313</v>
       </c>
       <c r="E8" s="6">
-        <f>正解値!K27</f>
+        <f>正解値!R27</f>
         <v>0.9</v>
       </c>
       <c r="F8" s="12">
@@ -2053,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215416CE-EF7A-442F-A723-10341F25AD0E}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2065,20 +2288,23 @@
     <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
@@ -2151,22 +2377,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2177,63 +2403,84 @@
         <v>15</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="S20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="U20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="V20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="W20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="X20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="Y20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="Z20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="AA20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="AB20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="AC20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="AD20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="X20" s="14" t="s">
+      <c r="AE20" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="AF20" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2247,59 +2494,78 @@
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="U21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="V21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="W21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="X21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="Y21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="Z21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="AA21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="AB21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="AC21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W21" s="1"/>
-      <c r="X21" s="14" t="s">
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="AF21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="1" t="s">
         <v>52</v>
       </c>
@@ -2313,75 +2579,103 @@
       <c r="H22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" ref="I22:I26" si="0">$D$24</f>
+      <c r="I22" s="2">
+        <f>RADIANS(180)</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ref="J22:J25" si="0">RADIANS(90)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K22" s="2">
+        <f>MAX(SIN($D$27)*COS(J22)+COS($D$27)*SIN(J22)*COS($D$28-I22),0)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="1">
+      <c r="L22" s="2">
+        <f>(1+COS(J22))/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" ref="M22:M27" si="1">1-L22</f>
+        <v>0.5</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" ref="N22:N27" si="2">K22*$D$25+L22*$D$26+M22*$D$29*$D$34</f>
+        <v>67.5</v>
+      </c>
+      <c r="O22" s="2">
+        <f>$D$30*L22</f>
+        <v>60</v>
+      </c>
+      <c r="P22" s="17">
+        <f t="shared" ref="P22:P27" si="3">$D$24+(N22*$D$35-O22*$D$36)*V22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="1">
+      <c r="R22" s="1">
         <v>0.9</v>
       </c>
-      <c r="L22" s="1">
+      <c r="S22" s="1">
         <f>熱伝達率!$F3</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="M22" s="1">
-        <f ca="1">1/$N22-$L22</f>
+      <c r="T22" s="1">
+        <f ca="1">1/$U22-$S22</f>
         <v>3.0411743961133499</v>
       </c>
-      <c r="N22" s="1">
-        <f t="shared" ref="N22:N27" ca="1" si="1">1/SUM($M22,$L22)</f>
+      <c r="U22" s="1">
+        <f t="shared" ref="U22:U27" ca="1" si="4">1/SUM($T22,$S22)</f>
         <v>0.11000000000000014</v>
       </c>
-      <c r="O22" s="1">
+      <c r="V22" s="1">
         <v>0.04</v>
       </c>
-      <c r="P22" s="1">
-        <f ca="1">1/4.65-SUM($N22,$O22)</f>
+      <c r="W22" s="1">
+        <f ca="1">1/4.65-SUM($U22,$V22)</f>
         <v>6.5053763440860057E-2</v>
       </c>
-      <c r="Q22" s="1">
-        <f t="shared" ref="Q22:Q27" ca="1" si="2">1/(1/$M22+$P22+$O22)</f>
+      <c r="X22" s="1">
+        <f t="shared" ref="X22:X27" ca="1" si="5">1/(1/$T22+$W22+$V22)</f>
         <v>2.3048160543761158</v>
       </c>
-      <c r="R22" s="5">
-        <f t="shared" ref="R22:R27" ca="1" si="3">$I22+($S22-$I22)*SUM($O22,$P22)/SUM($O22,$P22,$N22)</f>
-        <v>1.616157033144703</v>
-      </c>
-      <c r="S22" s="1">
-        <f t="shared" ref="S22:S27" ca="1" si="4">($D$31*$M22+$D$32*$L22)/SUM($M22,$L22)</f>
-        <v>3.3084074373484218</v>
-      </c>
-      <c r="T22" s="1">
-        <f t="shared" ref="T22:T27" ca="1" si="5">($D$31-$R22)*$M22</f>
-        <v>5.146428601076817</v>
-      </c>
-      <c r="U22" s="1">
-        <f t="shared" ref="U22:U27" ca="1" si="6">($D$32-$R22)*$L22</f>
-        <v>10.237665982593334</v>
-      </c>
-      <c r="V22" s="3">
-        <f t="shared" ref="V22:V27" ca="1" si="7">SUM($T22,$U22)</f>
-        <v>15.384094583670151</v>
-      </c>
-      <c r="W22" s="1">
-        <f>(1-$W$26)*J22/SUM($J$22:$J$25,$J$27)</f>
+      <c r="Y22" s="5">
+        <f t="shared" ref="Y22:Y27" ca="1" si="6">$P22+($Z22-$P22)*SUM($V22,$W22)/SUM($V22,$W22,$U22)</f>
+        <v>1.7768656554880304</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" ref="Z22:Z27" ca="1" si="7">($D$40*$T22+$D$41*$S22)/SUM($T22,$S22)</f>
+        <v>3.6373913111319389</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" ref="AA22:AA27" ca="1" si="8">($D$40-$Y22)*$T22</f>
+        <v>5.6581829872561284</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" ref="AB22:AB27" ca="1" si="9">($D$41-$Y22)*$S22</f>
+        <v>11.255686609506654</v>
+      </c>
+      <c r="AC22" s="3">
+        <f t="shared" ref="AC22:AC27" ca="1" si="10">SUM($AA22,$AB22)</f>
+        <v>16.913869596762783</v>
+      </c>
+      <c r="AD22" s="1">
+        <f>(1-$AD$26)*Q22/SUM($Q$22:$Q$25,$Q$27)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="X22" s="15">
-        <f ca="1">SUMPRODUCT(R22:R27,W22:W27)</f>
-        <v>2.7584766010958401</v>
-      </c>
-      <c r="Y22" s="1">
-        <f ca="1">(M22*$D$31+L22*$D$32)*N22</f>
-        <v>3.3084074373484218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="AE22" s="15">
+        <f ca="1">SUMPRODUCT(Y22:Y27,AD22:AD27)</f>
+        <v>3.2189449331926934</v>
+      </c>
+      <c r="AF22" s="1">
+        <f ca="1">(T22*$D$40+S22*$D$41)*U22</f>
+        <v>3.6373913111319389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
@@ -2396,73 +2690,101 @@
       <c r="H23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
+        <f>RADIANS(-90)</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" ref="K23:K27" si="11">MAX(SIN($D$27)*COS(J23)+COS($D$27)*SIN(J23)*COS($D$28-I23),0)</f>
+        <v>8.3679195640621438E-17</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" ref="L23:L27" si="12">(1+COS(J23))/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="2"/>
+        <v>67.500000000000043</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" ref="O23:O27" si="13">$D$30*L23</f>
+        <v>60</v>
+      </c>
+      <c r="P23" s="17">
+        <f t="shared" si="3"/>
+        <v>1.4210854715202005E-15</v>
+      </c>
+      <c r="Q23" s="1">
         <v>1</v>
       </c>
-      <c r="K23" s="1">
+      <c r="R23" s="1">
         <v>0.9</v>
       </c>
-      <c r="L23" s="1">
+      <c r="S23" s="1">
         <f>熱伝達率!$F4</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="M23" s="1">
-        <f t="shared" ref="M23:M27" ca="1" si="8">1/$N23-$L23</f>
+      <c r="T23" s="1">
+        <f t="shared" ref="T23:T27" ca="1" si="14">1/$U23-$S23</f>
         <v>3.0411743961133499</v>
       </c>
-      <c r="N23" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U23" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>0.11000000000000014</v>
       </c>
-      <c r="O23" s="1">
+      <c r="V23" s="1">
         <v>0.04</v>
       </c>
-      <c r="P23" s="1">
-        <f ca="1">1/4.65-SUM($N23,$O23)</f>
+      <c r="W23" s="1">
+        <f ca="1">1/4.65-SUM($U23,$V23)</f>
         <v>6.5053763440860057E-2</v>
       </c>
-      <c r="Q23" s="1">
-        <f t="shared" ca="1" si="2"/>
+      <c r="X23" s="1">
+        <f t="shared" ca="1" si="5"/>
         <v>2.3048160543761158</v>
       </c>
-      <c r="R23" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.616157033144703</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3084074373484218</v>
-      </c>
-      <c r="T23" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.146428601076817</v>
-      </c>
-      <c r="U23" s="1">
+      <c r="Y23" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>10.237665982593334</v>
-      </c>
-      <c r="V23" s="3">
+        <v>1.7768656554880309</v>
+      </c>
+      <c r="Z23" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>15.384094583670151</v>
-      </c>
-      <c r="W23" s="1">
-        <f t="shared" ref="W23:W27" si="9">(1-$W$26)*J23/SUM($J$22:$J$25,$J$27)</f>
+        <v>3.6373913111319389</v>
+      </c>
+      <c r="AA23" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.6581829872561267</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>11.25568660950665</v>
+      </c>
+      <c r="AC23" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>16.913869596762776</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" ref="AD23:AD27" si="15">(1-$AD$26)*Q23/SUM($Q$22:$Q$25,$Q$27)</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="Y23" s="1">
-        <f t="shared" ref="Y23:Y27" ca="1" si="10">(M23*$D$31+L23*$D$32)*N23</f>
-        <v>3.3084074373484218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A24" s="17" t="s">
+      <c r="AF23" s="1">
+        <f t="shared" ref="AF23:AF27" ca="1" si="16">(T23*$D$40+S23*$D$41)*U23</f>
+        <v>3.6373913111319389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2478,395 +2800,642 @@
       <c r="H24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="2">
+        <f>RADIANS(0)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="11"/>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="2"/>
+        <v>500.51270189221935</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="P24" s="17">
+        <f t="shared" si="3"/>
+        <v>13.856406460551021</v>
+      </c>
+      <c r="Q24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="1">
+      <c r="R24" s="1">
         <v>0.9</v>
       </c>
-      <c r="L24" s="1">
+      <c r="S24" s="1">
         <f>熱伝達率!$F5</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="M24" s="1">
+      <c r="T24" s="1">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="W24" s="1">
+        <f ca="1">1/4.65-SUM($U24,$V24)</f>
+        <v>6.5053763440860057E-2</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.3048160543761158</v>
+      </c>
+      <c r="Y24" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.8644175600598878</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.6373913111319389</v>
+      </c>
+      <c r="AA24" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3.0411743961133499</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="P24" s="1">
-        <f ca="1">1/4.65-SUM($N24,$O24)</f>
-        <v>6.5053763440860057E-2</v>
-      </c>
-      <c r="Q24" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.3048160543761158</v>
-      </c>
-      <c r="R24" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.7311570331447097</v>
-      </c>
-      <c r="S24" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3084074373484218</v>
-      </c>
-      <c r="T24" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>-10.409178435042989</v>
-      </c>
-      <c r="U24" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-20.706726981286863</v>
-      </c>
-      <c r="V24" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>-31.115905416329852</v>
-      </c>
-      <c r="W24" s="1">
-        <f t="shared" si="9"/>
+        <v>-15.896298396052213</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>-31.622122048747261</v>
+      </c>
+      <c r="AC24" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>-47.518420444799474</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" si="15"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="Y24" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>3.3084074373484218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="AF24" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>3.6373913111319389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="H25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
+        <f>RADIANS(90)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="11"/>
+        <v>8.3679195640621438E-17</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="2"/>
+        <v>67.500000000000043</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="P25" s="17">
+        <f t="shared" si="3"/>
+        <v>1.4210854715202005E-15</v>
+      </c>
+      <c r="Q25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="1">
+      <c r="R25" s="1">
         <v>0.9</v>
       </c>
-      <c r="L25" s="1">
+      <c r="S25" s="1">
         <f>熱伝達率!$F6</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="M25" s="1">
+      <c r="T25" s="1">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.0411743961133499</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11000000000000014</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="W25" s="1">
+        <f ca="1">1/4.65-SUM($U25,$V25)</f>
+        <v>6.5053763440860057E-2</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.3048160543761158</v>
+      </c>
+      <c r="Y25" s="5">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.7768656554880309</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>3.6373913111319389</v>
+      </c>
+      <c r="AA25" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3.0411743961133499</v>
-      </c>
-      <c r="N25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11000000000000014</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="P25" s="1">
-        <f ca="1">1/4.65-SUM($N25,$O25)</f>
-        <v>6.5053763440860057E-2</v>
-      </c>
-      <c r="Q25" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.3048160543761158</v>
-      </c>
-      <c r="R25" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.616157033144703</v>
-      </c>
-      <c r="S25" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3084074373484218</v>
-      </c>
-      <c r="T25" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.146428601076817</v>
-      </c>
-      <c r="U25" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>10.237665982593334</v>
-      </c>
-      <c r="V25" s="3">
-        <f t="shared" ca="1" si="7"/>
-        <v>15.384094583670151</v>
-      </c>
-      <c r="W25" s="1">
-        <f t="shared" si="9"/>
+        <v>5.6581829872561267</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>11.25568660950665</v>
+      </c>
+      <c r="AC25" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>16.913869596762776</v>
+      </c>
+      <c r="AD25" s="1">
+        <f t="shared" si="15"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="Y25" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>3.3084074373484218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="AF25" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>3.6373913111319389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1">
-        <f ca="1">SUMPRODUCT($Q$22:$Q$27,$J$22:$J$27)+$D$23*$D$25</f>
-        <v>13.725592157349325</v>
+        <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1"/>
       <c r="H26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="0"/>
+      <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
+        <f>RADIANS(180)</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K26" s="1">
+      <c r="N26" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1">
         <v>0.9</v>
       </c>
-      <c r="L26" s="1">
+      <c r="S26" s="1">
         <f>熱伝達率!$F7</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="M26" s="1">
-        <f t="shared" ca="1" si="8"/>
+      <c r="T26" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>3.0411743961133499</v>
       </c>
-      <c r="N26" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U26" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>0.11000000000000014</v>
       </c>
-      <c r="O26" s="1">
+      <c r="V26" s="1">
         <v>0.04</v>
       </c>
-      <c r="P26" s="1">
+      <c r="W26" s="1">
         <f>0.012/0.16</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Q26" s="1">
-        <f t="shared" ca="1" si="2"/>
+      <c r="X26" s="1">
+        <f t="shared" ca="1" si="5"/>
         <v>2.2531639699224311</v>
       </c>
-      <c r="R26" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.6909638013114159</v>
-      </c>
-      <c r="S26" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3084074373484218</v>
-      </c>
-      <c r="T26" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.9189281730722225</v>
-      </c>
-      <c r="U26" s="1">
+      <c r="Y26" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7851048818096302</v>
-      </c>
-      <c r="V26" s="3">
+        <v>2.4066666701341854</v>
+      </c>
+      <c r="Z26" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>14.704033054881853</v>
-      </c>
-      <c r="W26" s="1">
+        <v>3.6373913111319389</v>
+      </c>
+      <c r="AA26" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.7428482668680325</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.4455575603842563</v>
+      </c>
+      <c r="AC26" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>11.188405827252289</v>
+      </c>
+      <c r="AD26" s="1">
         <v>0.45</v>
       </c>
-      <c r="Y26" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>3.3084074373484218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
+      <c r="AF26" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>3.6373913111319389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <f>RADIANS(30)</f>
+        <v>0.52359877559829882</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1"/>
       <c r="H27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <f>RADIANS(0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="11"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K27" s="1">
+      <c r="M27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="P27" s="17">
+        <f t="shared" si="3"/>
+        <v>6.88</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1">
         <v>0.9</v>
       </c>
-      <c r="L27" s="1">
+      <c r="S27" s="1">
         <f>熱伝達率!$F8</f>
         <v>6.0497346947957293</v>
       </c>
-      <c r="M27" s="1">
-        <f t="shared" ca="1" si="8"/>
+      <c r="T27" s="1">
+        <f t="shared" ca="1" si="14"/>
         <v>3.0411743961133499</v>
       </c>
-      <c r="N27" s="1">
-        <f t="shared" ca="1" si="1"/>
+      <c r="U27" s="1">
+        <f t="shared" ca="1" si="4"/>
         <v>0.11000000000000014</v>
       </c>
-      <c r="O27" s="1">
+      <c r="V27" s="1">
         <v>0.04</v>
       </c>
-      <c r="P27" s="1">
+      <c r="W27" s="1">
         <f>0.012/0.16</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Q27" s="1">
-        <f t="shared" ca="1" si="2"/>
+      <c r="X27" s="1">
+        <f t="shared" ca="1" si="5"/>
         <v>2.2531639699224311</v>
       </c>
-      <c r="R27" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.5798526902003083</v>
-      </c>
-      <c r="S27" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.3084074373484218</v>
-      </c>
-      <c r="T27" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>-9.9490355412597218</v>
-      </c>
-      <c r="U27" s="1">
+      <c r="Y27" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>-19.791375848302845</v>
-      </c>
-      <c r="V27" s="3">
+        <v>5.2226666701341875</v>
+      </c>
+      <c r="Z27" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-29.740411389562567</v>
-      </c>
-      <c r="W27" s="1">
-        <f t="shared" si="9"/>
+        <v>3.6373913111319389</v>
+      </c>
+      <c r="AA27" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>-4.8210988325871673</v>
+      </c>
+      <c r="AB27" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>-9.5904953401605297</v>
+      </c>
+      <c r="AC27" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>-14.411594172747698</v>
+      </c>
+      <c r="AD27" s="1">
+        <f t="shared" si="15"/>
         <v>0.11000000000000001</v>
       </c>
-      <c r="Y27" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>3.3084074373484218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A28" s="17" t="s">
+      <c r="AF27" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>3.6373913111319389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="1">
+        <f>D26+SIN(D27)*D25</f>
+        <v>350</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="P29" s="16" t="str">
+        <f>_xlfn.TEXTJOIN(", ",TRUE,P22:P27)</f>
+        <v>0, 1.4210854715202E-15, 13.856406460551, 1.4210854715202E-15, 1.12, 6.88</v>
+      </c>
+      <c r="AC29" s="16" t="str">
+        <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AC22:AC27)</f>
+        <v>16.9138695967628, 16.9138695967628, -47.5184204447995, 16.9138695967628, 11.1884058272523, -14.4115941727477</v>
+      </c>
+      <c r="AF29" s="16" t="str">
+        <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AF22:AF27)</f>
+        <v>3.63739131113194, 3.63739131113194, 3.63739131113194, 3.63739131113194, 3.63739131113194, 3.63739131113194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="1">
+        <v>120</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <f ca="1">SUMPRODUCT($X$22:$X$27,$Q$22:$Q$27)+$D$23*$D$31</f>
+        <v>13.725592157349325</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B37" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="1">
-        <f ca="1">SUM($T$22:$T$27)</f>
-        <v>-3.730349362740526E-14</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D37" s="1">
+        <f ca="1">SUM($AA$22:$AA$27)</f>
+        <v>-2.9656277433787182E-12</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="1" t="s">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="1">
-        <f ca="1">$D$23*$D$25*($D$31-$D$24)</f>
+      <c r="D38" s="1">
+        <f ca="1">$D$23*$D$31*($D$40-$D$24)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A30" s="19"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="1" t="s">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="21"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="1">
-        <f ca="1">SUM($D$28:$D$29)</f>
-        <v>-3.730349362740526E-14</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D39" s="1">
+        <f ca="1">SUM($D$37:$D$38)</f>
+        <v>-2.9656277433787182E-12</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17" t="s">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="21"/>
+      <c r="B40" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="4">
-        <f ca="1">$D$31+($D$27-$D$30)/$D$26</f>
-        <v>3.3084074373484245</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D40" s="4">
+        <f ca="1">$D$40+($D$33-$D$39)/$D$32</f>
+        <v>3.6373913111321126</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="1" t="s">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="4">
-        <f ca="1">SUMPRODUCT($L$22:$L$27,$J$22:$J$27,$R$22:$R$27)/SUMPRODUCT($L$22:$L$27,$J$22:$J$27)</f>
-        <v>3.308407437348424</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D41" s="4">
+        <f ca="1">SUMPRODUCT($S$22:$S$27,$Q$22:$Q$27,$Y$22:$Y$27)/SUMPRODUCT($S$22:$S$27,$Q$22:$Q$27)</f>
+        <v>3.6373913111320593</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B40:B41"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B24:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
